--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1,302 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
-  <si>
-    <t>机器人添加时间</t>
-  </si>
-  <si>
-    <t>附件地址或文章所在地</t>
-  </si>
-  <si>
-    <t>快照</t>
-  </si>
-  <si>
-    <t>错敏词</t>
-  </si>
-  <si>
-    <t>推荐词</t>
-  </si>
-  <si>
-    <t>附件标题</t>
-  </si>
-  <si>
-    <t>父页面地址</t>
-  </si>
-  <si>
-    <t>父页面标题</t>
-  </si>
-  <si>
-    <t>2025-01-23 09:07</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCYKAdDo-ABS2AP_oti8528.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=578ae850cb104d92a061bc6847468e37&amp;type=0</t>
-  </si>
-  <si>
-    <t>“三公经费”</t>
-  </si>
-  <si>
-    <t>“三公”经费</t>
-  </si>
-  <si>
-    <t>3巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
-  </si>
-  <si>
-    <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCdWAe013AArqAF0gUts808.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e93eb469ca3140e5a088a80ffbed20df&amp;type=0</t>
-  </si>
-  <si>
-    <t>15巴中市巴州区天马山镇村镇建设服务中心2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCciAbHTSAAmaADolcEg650.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bebc4a16cb99479dacdffef71d7f4775&amp;type=0</t>
-  </si>
-  <si>
-    <t>13巴中市巴州区天马山镇公共事务服务中心2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCbuAUvdIAApwABGOe88415.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=22e662692256483b84a76b21dbed3626&amp;type=0</t>
-  </si>
-  <si>
-    <t>11巴中市巴州区天马山镇农民工服务中心2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCa6ADEicAAs6AJCkQJM543.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2525872af1ce4ff987d05e93b5661337&amp;type=0</t>
-  </si>
-  <si>
-    <t>9巴中市巴州区天马山镇农业综合服务中心2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCZKAJogLAA4AAHD5ShY219.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0b82ca3e03724f069bf33f38f3d9a1fe&amp;type=0</t>
-  </si>
-  <si>
-    <t>5巴中市巴州区天马山镇人民政府财政所2023年部门决算公开编制说明.doc</t>
-  </si>
-  <si>
-    <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCaCAfwF0AAkOAIplFo4944.doc</t>
-  </si>
-  <si>
-    <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0e6cd91b54564f6d8602ade1d74e86c4&amp;type=0</t>
-  </si>
-  <si>
-    <t>7巴中市巴州区天马山镇便民服务中心2023年部门决算公开编制说明.doc</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -596,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -994,7 +869,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1003,7 +878,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1016,11 +891,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1272,235 +1210,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3333333333333" style="1" customWidth="1"/>
+    <col width="25.6666666666667" customWidth="1" style="1" min="1" max="1"/>
+    <col width="87.2222222222222" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.6666666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="35.1111111111111" customWidth="1" style="1" min="4" max="4"/>
+    <col width="36.8888888888889" customWidth="1" style="1" min="6" max="6"/>
+    <col width="23.3333333333333" customWidth="1" style="1" min="7" max="7"/>
+    <col width="27.3333333333333" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>机器人添加时间</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>附件地址或文章所在地</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>快照</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>错敏词</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>推荐词</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>附件标题</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>父页面地址</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>父页面标题</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCYKAdDo-ABS2AP_oti8528.doc</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=578ae850cb104d92a061bc6847468e37&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>3巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCdWAe013AArqAF0gUts808.doc</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e93eb469ca3140e5a088a80ffbed20df&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>15巴中市巴州区天马山镇村镇建设服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCciAbHTSAAmaADolcEg650.doc</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bebc4a16cb99479dacdffef71d7f4775&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>13巴中市巴州区天马山镇公共事务服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCbuAUvdIAApwABGOe88415.doc</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=22e662692256483b84a76b21dbed3626&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>11巴中市巴州区天马山镇农民工服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCa6ADEicAAs6AJCkQJM543.doc</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2525872af1ce4ff987d05e93b5661337&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>9巴中市巴州区天马山镇农业综合服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCZKAJogLAA4AAHD5ShY219.doc</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0b82ca3e03724f069bf33f38f3d9a1fe&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>5巴中市巴州区天马山镇人民政府财政所2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:07</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCaCAfwF0AAkOAIplFo4944.doc</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0e6cd91b54564f6d8602ade1d74e86c4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>7巴中市巴州区天马山镇便民服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-11 09:00</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/14/rBUtIWcgOR2AHeaQAABsSGWljcc24.docx</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=88bcfd93be514d4db39cff25e7ea1a47&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>《住房公积管理条例》</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>《住房公积金管理条例》</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>巴中经开区巴州工业园管理委员会2022年部门预算编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/11473887.html</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>巴中经开区巴州工业园管理委员会2022年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-15 10:28</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/45/rBUtIWd8hW2AMlvKAB1h2sjDPIk274.pdf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dadd5f3f13ea4ee989e62ad03cb87f0b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>建立建全</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>建立健全</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>巴中平安内分泌专科医院项目环境影响报告表（公示本） .pdf</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/xzxk/jsxmhjyxbgbsp/11712134.html</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>关于2024年11月20日已受理建设项目环评文件公告（2024—15号</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1611,44 +1611,170 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>2025-02-15 10:28</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/group2/M00/09/45/rBUtIWd8hW2AMlvKAB1h2sjDPIk274.pdf</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dadd5f3f13ea4ee989e62ad03cb87f0b&amp;type=0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>建立建全</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>建立健全</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>巴中平安内分泌专科医院项目环境影响报告表（公示本） .pdf</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/jczwgk/gkly/xzxk/jsxmhjyxbgbsp/11712134.html</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>关于2024年11月20日已受理建设项目环评文件公告（2024—15号</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:31</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCaCAfwF0AAkOAIplFo4944.doc</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3913df6ccde140ac9d096524fd530b55&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>发放或社保</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>发放和社保</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>7巴中市巴州区天马山镇便民服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:31</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/51/rBUtIWePCbuAUvdIAApwABGOe88415.doc</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d64ae4f0c4ab470ba5c7e87c7efc5f8c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>发放或社保</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>发放和社保</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>11巴中市巴州区天马山镇农民工服务中心2023年部门决算公开编制说明.doc</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597211/11718326.html</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区天马山镇人民政府2023年部门决算公开编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/2C/rBUtIWdPtNSAM1beAAJaAHMApYM697.xls</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5604748f74d5477bb1a9ad8ec0dfb36b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>巩固脱贫攻坚成果</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023-173001-巴中市巴州区发展和改革局决算公开报表.xls</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/11704037.html</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>巴中市巴州区发展和改革局2023年部门决算编制说明</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1737,44 +1737,128 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>2025-02-24 14:31</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/group2/M00/09/2C/rBUtIWdPtNSAM1beAAJaAHMApYM697.xls</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5604748f74d5477bb1a9ad8ec0dfb36b&amp;type=0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>巩固脱贫攻坚成果</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>巩固拓展脱贫攻坚成果</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>2023-173001-巴中市巴州区发展和改革局决算公开报表.xls</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/11704037.html</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>巴中市巴州区发展和改革局2023年部门决算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-20 08:38</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzqxxgk/Articles/33347147/2017/10/27/20171027165126-128434.pdf</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b49d774c59984c91883b6f2694d183bd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>晚22:00</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>“凯邦名门”建设项目</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596961/9399081.html</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>关于2017年10月26日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-27 15:35</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzq/59a767e47f8b9acf685d2650/201902/20190228154438230_AfREry6k.docx?fileName=王祥国见义勇为主要事迹.docx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0d31694ddbfa4b73a9a414109c47539e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>下午14点30分</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府关于给予王祥国同志见义勇为奖励的决定</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11553053.html</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府关于给予王祥国同志见义勇为奖励的决定</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1821,44 +1821,212 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>2025-03-27 15:35</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/oldfiles/bzq/59a767e47f8b9acf685d2650/201902/20190228154438230_AfREry6k.docx?fileName=王祥国见义勇为主要事迹.docx</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0d31694ddbfa4b73a9a414109c47539e&amp;type=0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>下午14点30分</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>巴中市巴州区人民政府关于给予王祥国同志见义勇为奖励的决定</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/public/6597391/11553053.html</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>巴中市巴州区人民政府关于给予王祥国同志见义勇为奖励的决定</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:25</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/06/EB/rBUtIWSvnuGAAzraAAK6ABoS7RQ356.xls</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4232bdec735d418898416f8f652f2152&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>巴州区老干部局2016年预算批复表.xls</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8433911.html</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>中共巴中市巴州区委老干部局2016年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:25</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzq/upload/59a767e47f8b9acf685d2650/201613/201613_57099b7504b32a646c786a8ef778a92e.xls?fileName=57099b7504b32a646c786a8ef778a92e.xls</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a555ceb4faf44a4296d577fbacff3d05&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>附件：57099b7504b32a646c786a8ef778a92e.xls</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8432891.html</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区住建系统2017年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:25</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzq/upload/59a767e47f8b9acf685d2650/201613/201613_3efba75a0c0f7184f8826379e0ceb648.xls?fileName=3efba75a0c0f7184f8826379e0ceb648.xls</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fd8ff0b4a5ce4e9287ba0ef57607275f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>附件：3efba75a0c0f7184f8826379e0ceb648.xls</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8433621.html</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>巴中市巴州区青少年宫2017年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzq/upload/59a767e47f8b9acf685d2650/201613/201613_436db511abd2661d742920515de4b318.xls?fileName=436db511abd2661d742920515de4b318.xls</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dcadb047be444a0c80e3009a2f437f6d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>附件：436db511abd2661d742920515de4b318.xls</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8432911.html</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>巴中市巴州区经济和信息化局2017年部门预算编制说明</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1989,44 +1989,86 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>2025-04-18 10:25</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/oldfiles/bzq/upload/59a767e47f8b9acf685d2650/201613/201613_436db511abd2661d742920515de4b318.xls?fileName=436db511abd2661d742920515de4b318.xls</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dcadb047be444a0c80e3009a2f437f6d&amp;type=0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>“三公经费”</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>“三公”经费</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>附件：436db511abd2661d742920515de4b318.xls</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8432911.html</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>巴中市巴州区经济和信息化局2017年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:08</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/8D/rBUtIWgRe3SAFR6-AAEoAFYpjU0421.xls</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0ce5ef3b2eb04e348e6ea94c3cd84e0e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>政府《工作报告》</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>附件：区农民工服务中心2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/zdxxgk/czxx/czyjs/8437021.html</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>巴中市巴州区农民工服务中心2019年部门预算编制的说明</t>
         </is>
       </c>
     </row>
